--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="87">
   <si>
     <t>Template Id</t>
   </si>
@@ -22,12 +22,12 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Template</t>
+  </si>
+  <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Template</t>
-  </si>
-  <si>
     <t>Button Type</t>
   </si>
   <si>
@@ -46,13 +46,31 @@
     <t>Quality Rating</t>
   </si>
   <si>
+    <t>{{1}}</t>
+  </si>
+  <si>
+    <t>{{2}}</t>
+  </si>
+  <si>
+    <t>{{3}}</t>
+  </si>
+  <si>
+    <t>{{4}}</t>
+  </si>
+  <si>
+    <t>{{5}}</t>
+  </si>
+  <si>
+    <t>{{6}}</t>
+  </si>
+  <si>
+    <t>Sample for dynamic URl</t>
+  </si>
+  <si>
     <t>broadcast_v2</t>
   </si>
   <si>
     <t>broadcast without image with call action</t>
-  </si>
-  <si>
-    <t>Payment Update</t>
   </si>
   <si>
     <t>Hey {{1}}, 
@@ -61,6 +79,9 @@
 To unsubscribe from messages, please type STOP.</t>
   </si>
   <si>
+    <t>Payment Update</t>
+  </si>
+  <si>
     <t>Call to Action- Visit Website</t>
   </si>
   <si>
@@ -76,13 +97,22 @@
     <t>Ineligible</t>
   </si>
   <si>
+    <t>Mehul</t>
+  </si>
+  <si>
+    <t>checkout flash sale</t>
+  </si>
+  <si>
+    <t>customersupportlink.com</t>
+  </si>
+  <si>
+    <t>https://bspd.me/track</t>
+  </si>
+  <si>
     <t>order_r2</t>
   </si>
   <si>
     <t>order receipt</t>
-  </si>
-  <si>
-    <t>Shipping Update</t>
   </si>
   <si>
     <t>Hi {{1}}, thank you for your purchase of {{2}} from {{3}}. 
@@ -91,7 +121,16 @@
 To unsubscribe from messages, please type STOP.</t>
   </si>
   <si>
+    <t>Shipping Update</t>
+  </si>
+  <si>
     <t>Check Order Status</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Azani</t>
   </si>
   <si>
     <t>reordering_c</t>
@@ -173,6 +212,12 @@
 To unsubscribe from messages, please type STOP.</t>
   </si>
   <si>
+    <t>get 5% off</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
     <t>abandon_nd</t>
   </si>
   <si>
@@ -200,6 +245,9 @@
 To unsubscribe from messages, please type STOP.</t>
   </si>
   <si>
+    <t>5% off</t>
+  </si>
+  <si>
     <t>broadcast_v2_img</t>
   </si>
   <si>
@@ -236,6 +284,9 @@
   </si>
   <si>
     <t>adandon with image with discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code </t>
   </si>
   <si>
     <t>abandon_img_nd</t>
@@ -272,13 +323,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+    </font>
     <font>
       <name val="Arial"/>
     </font>
@@ -309,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -322,17 +377,20 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -362,15 +420,24 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="36.86"/>
-    <col customWidth="1" min="3" max="4" width="20.57"/>
-    <col customWidth="1" min="5" max="5" width="13.29"/>
+    <col customWidth="1" min="3" max="3" width="20.57"/>
+    <col customWidth="1" min="4" max="4" width="65.0"/>
+    <col customWidth="1" min="5" max="5" width="20.57"/>
     <col customWidth="1" min="6" max="6" width="26.71"/>
     <col customWidth="1" min="7" max="7" width="23.14"/>
+    <col customWidth="1" min="13" max="13" width="20.71"/>
+    <col customWidth="1" min="14" max="14" width="30.43"/>
+    <col customWidth="1" min="15" max="15" width="26.0"/>
+    <col customWidth="1" min="17" max="17" width="37.43"/>
+    <col customWidth="1" min="18" max="18" width="26.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -407,1484 +474,1692 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="79.5" customHeight="1">
       <c r="A2" s="2">
         <v>6088599.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J2" s="3">
         <v>44358.0</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>6088595.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J3" s="3">
         <v>44358.0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>6088592.0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="J4" s="3">
         <v>44358.0</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>6088591.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J5" s="3">
         <v>44358.0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
         <v>6088590.0</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J6" s="3">
         <v>44358.0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>6088586.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J7" s="3">
         <v>44358.0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>6088584.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J8" s="3">
         <v>44358.0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>6088581.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J9" s="3">
         <v>44358.0</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>6088580.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J10" s="3">
         <v>44358.0</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>23414.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="J11" s="3">
         <v>44358.0</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
         <v>23413.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="J12" s="3">
         <v>44358.0</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="2">
         <v>23412.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="J13" s="3">
         <v>44358.0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="2">
         <v>23411.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="J14" s="3">
         <v>44358.0</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="2">
         <v>23410.0</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="J15" s="3">
         <v>44358.0</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>6089010.0</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>66</v>
+      <c r="B16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="8">
+        <v>84</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="9">
         <v>44361.0</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
+      <c r="K16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
     </row>
     <row r="17">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>23652.0</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="8">
+      <c r="J17" s="9">
         <v>44361.0</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
+      <c r="K17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
     </row>
     <row r="18">
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19">
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20">
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="J20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21">
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="J21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22">
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="J22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23">
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="J23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24">
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="J24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25">
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="J25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26">
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="J26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27">
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="J27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28">
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="J28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29">
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="J29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30">
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="J30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31">
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="J31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32">
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="J32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33">
-      <c r="J33" s="10"/>
+      <c r="J33" s="11"/>
     </row>
     <row r="34">
-      <c r="J34" s="10"/>
+      <c r="J34" s="11"/>
     </row>
     <row r="35">
-      <c r="J35" s="10"/>
+      <c r="J35" s="11"/>
     </row>
     <row r="36">
-      <c r="J36" s="10"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37">
-      <c r="J37" s="10"/>
+      <c r="J37" s="11"/>
     </row>
     <row r="38">
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="J38" s="10"/>
+      <c r="D38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39">
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="J39" s="10"/>
+      <c r="D39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="J39" s="11"/>
     </row>
     <row r="40">
-      <c r="J40" s="10"/>
+      <c r="J40" s="11"/>
     </row>
     <row r="41">
-      <c r="J41" s="10"/>
+      <c r="J41" s="11"/>
     </row>
     <row r="42">
-      <c r="J42" s="10"/>
+      <c r="J42" s="11"/>
     </row>
     <row r="43">
-      <c r="J43" s="10"/>
+      <c r="J43" s="11"/>
     </row>
     <row r="44">
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="J44" s="10"/>
+      <c r="D44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="J44" s="11"/>
     </row>
     <row r="45">
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="J45" s="10"/>
+      <c r="D45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="J45" s="11"/>
     </row>
     <row r="46">
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="J46" s="10"/>
+      <c r="D46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="J46" s="11"/>
     </row>
     <row r="47">
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="J47" s="10"/>
+      <c r="D47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="J47" s="11"/>
     </row>
     <row r="48">
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="J48" s="10"/>
+      <c r="D48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="J48" s="11"/>
     </row>
     <row r="49">
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="J49" s="10"/>
+      <c r="D49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="J49" s="11"/>
     </row>
     <row r="50">
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="J50" s="10"/>
+      <c r="D50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="J50" s="11"/>
     </row>
     <row r="51">
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="J51" s="10"/>
+      <c r="D51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="J51" s="11"/>
     </row>
     <row r="52">
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="J52" s="10"/>
+      <c r="D52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="J52" s="11"/>
     </row>
     <row r="53">
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="J53" s="10"/>
+      <c r="D53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="J53" s="11"/>
     </row>
     <row r="54">
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="J54" s="10"/>
+      <c r="D54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="J54" s="11"/>
     </row>
     <row r="55">
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="J55" s="10"/>
+      <c r="D55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="J55" s="11"/>
     </row>
     <row r="56">
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="J56" s="10"/>
+      <c r="D56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="J56" s="11"/>
     </row>
     <row r="57">
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="J57" s="10"/>
+      <c r="D57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="J57" s="11"/>
     </row>
     <row r="58">
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="J58" s="10"/>
+      <c r="D58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="J58" s="11"/>
     </row>
     <row r="59">
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="J59" s="10"/>
+      <c r="D59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="J59" s="11"/>
     </row>
     <row r="60">
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="J60" s="10"/>
+      <c r="D60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="J60" s="11"/>
     </row>
     <row r="61">
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="J61" s="10"/>
+      <c r="D61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="J61" s="11"/>
     </row>
     <row r="62">
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="J62" s="10"/>
+      <c r="D62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="J62" s="11"/>
     </row>
     <row r="63">
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="J63" s="10"/>
+      <c r="D63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="J63" s="11"/>
     </row>
     <row r="64">
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="J64" s="10"/>
+      <c r="D64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="J64" s="11"/>
     </row>
     <row r="65">
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="J65" s="10"/>
+      <c r="D65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="J65" s="11"/>
     </row>
     <row r="66">
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="J66" s="10"/>
+      <c r="D66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="J66" s="11"/>
     </row>
     <row r="67">
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="J67" s="10"/>
+      <c r="D67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="J67" s="11"/>
     </row>
     <row r="68">
-      <c r="J68" s="10"/>
+      <c r="J68" s="11"/>
     </row>
     <row r="69">
-      <c r="J69" s="10"/>
+      <c r="J69" s="11"/>
     </row>
     <row r="70">
-      <c r="J70" s="10"/>
+      <c r="J70" s="11"/>
     </row>
     <row r="71">
-      <c r="J71" s="10"/>
+      <c r="J71" s="11"/>
     </row>
     <row r="72">
-      <c r="J72" s="10"/>
+      <c r="J72" s="11"/>
     </row>
     <row r="73">
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="J73" s="10"/>
+      <c r="D73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="J73" s="11"/>
     </row>
     <row r="74">
-      <c r="J74" s="10"/>
+      <c r="J74" s="11"/>
     </row>
     <row r="75">
-      <c r="J75" s="10"/>
+      <c r="J75" s="11"/>
     </row>
     <row r="76">
-      <c r="J76" s="10"/>
+      <c r="J76" s="11"/>
     </row>
     <row r="77">
-      <c r="J77" s="10"/>
+      <c r="J77" s="11"/>
     </row>
     <row r="78">
-      <c r="J78" s="10"/>
+      <c r="J78" s="11"/>
     </row>
     <row r="79">
-      <c r="J79" s="10"/>
+      <c r="J79" s="11"/>
     </row>
     <row r="80">
-      <c r="J80" s="10"/>
+      <c r="J80" s="11"/>
     </row>
     <row r="81">
-      <c r="J81" s="10"/>
+      <c r="J81" s="11"/>
     </row>
     <row r="82">
-      <c r="J82" s="10"/>
+      <c r="J82" s="11"/>
     </row>
     <row r="83">
-      <c r="J83" s="10"/>
+      <c r="J83" s="11"/>
     </row>
     <row r="84">
-      <c r="J84" s="10"/>
+      <c r="J84" s="11"/>
     </row>
     <row r="85">
-      <c r="J85" s="10"/>
+      <c r="J85" s="11"/>
     </row>
     <row r="86">
-      <c r="J86" s="10"/>
+      <c r="J86" s="11"/>
     </row>
     <row r="87">
-      <c r="J87" s="10"/>
+      <c r="J87" s="11"/>
     </row>
     <row r="88">
-      <c r="J88" s="10"/>
+      <c r="J88" s="11"/>
     </row>
     <row r="89">
-      <c r="J89" s="10"/>
+      <c r="J89" s="11"/>
     </row>
     <row r="90">
-      <c r="J90" s="10"/>
+      <c r="J90" s="11"/>
     </row>
     <row r="91">
-      <c r="J91" s="10"/>
+      <c r="J91" s="11"/>
     </row>
     <row r="92">
-      <c r="J92" s="10"/>
+      <c r="J92" s="11"/>
     </row>
     <row r="93">
-      <c r="J93" s="10"/>
+      <c r="J93" s="11"/>
     </row>
     <row r="94">
-      <c r="J94" s="10"/>
+      <c r="J94" s="11"/>
     </row>
     <row r="95">
-      <c r="J95" s="10"/>
+      <c r="J95" s="11"/>
     </row>
     <row r="96">
-      <c r="J96" s="10"/>
+      <c r="J96" s="11"/>
     </row>
     <row r="97">
-      <c r="J97" s="10"/>
+      <c r="J97" s="11"/>
     </row>
     <row r="98">
-      <c r="J98" s="10"/>
+      <c r="J98" s="11"/>
     </row>
     <row r="99">
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="J99" s="10"/>
+      <c r="D99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="J99" s="11"/>
     </row>
     <row r="100">
-      <c r="J100" s="10"/>
+      <c r="J100" s="11"/>
     </row>
     <row r="101">
-      <c r="J101" s="10"/>
+      <c r="J101" s="11"/>
     </row>
     <row r="102">
-      <c r="J102" s="10"/>
+      <c r="J102" s="11"/>
     </row>
     <row r="103">
-      <c r="J103" s="10"/>
+      <c r="J103" s="11"/>
     </row>
     <row r="104">
-      <c r="J104" s="10"/>
+      <c r="J104" s="11"/>
     </row>
     <row r="105">
-      <c r="J105" s="10"/>
+      <c r="J105" s="11"/>
     </row>
     <row r="106">
-      <c r="J106" s="10"/>
+      <c r="J106" s="11"/>
     </row>
     <row r="107">
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="J107" s="10"/>
+      <c r="D107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="J107" s="11"/>
     </row>
     <row r="108">
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="J108" s="10"/>
+      <c r="D108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="J108" s="11"/>
     </row>
     <row r="109">
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="J109" s="10"/>
+      <c r="D109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="J109" s="11"/>
     </row>
     <row r="110">
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="J110" s="10"/>
+      <c r="D110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="J110" s="11"/>
     </row>
     <row r="111">
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="J111" s="10"/>
+      <c r="D111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="J111" s="11"/>
     </row>
     <row r="112">
-      <c r="J112" s="10"/>
+      <c r="J112" s="11"/>
     </row>
     <row r="113">
-      <c r="J113" s="10"/>
+      <c r="J113" s="11"/>
     </row>
     <row r="114">
-      <c r="J114" s="10"/>
+      <c r="J114" s="11"/>
     </row>
     <row r="115">
-      <c r="J115" s="10"/>
+      <c r="J115" s="11"/>
     </row>
     <row r="116">
-      <c r="J116" s="10"/>
+      <c r="J116" s="11"/>
     </row>
     <row r="117">
-      <c r="J117" s="10"/>
+      <c r="J117" s="11"/>
     </row>
     <row r="118">
-      <c r="J118" s="10"/>
+      <c r="J118" s="11"/>
     </row>
     <row r="119">
-      <c r="J119" s="10"/>
+      <c r="J119" s="11"/>
     </row>
     <row r="120">
-      <c r="J120" s="10"/>
+      <c r="J120" s="11"/>
     </row>
     <row r="121">
-      <c r="J121" s="10"/>
+      <c r="J121" s="11"/>
     </row>
     <row r="122">
-      <c r="J122" s="10"/>
+      <c r="J122" s="11"/>
     </row>
     <row r="123">
-      <c r="J123" s="10"/>
+      <c r="J123" s="11"/>
     </row>
     <row r="124">
-      <c r="J124" s="10"/>
+      <c r="J124" s="11"/>
     </row>
     <row r="125">
-      <c r="J125" s="10"/>
+      <c r="J125" s="11"/>
     </row>
     <row r="126">
-      <c r="J126" s="10"/>
+      <c r="J126" s="11"/>
     </row>
     <row r="127">
-      <c r="J127" s="10"/>
+      <c r="J127" s="11"/>
     </row>
     <row r="128">
-      <c r="J128" s="10"/>
+      <c r="J128" s="11"/>
     </row>
     <row r="129">
-      <c r="J129" s="10"/>
+      <c r="J129" s="11"/>
     </row>
     <row r="130">
-      <c r="J130" s="10"/>
+      <c r="J130" s="11"/>
     </row>
     <row r="131">
-      <c r="J131" s="10"/>
+      <c r="J131" s="11"/>
     </row>
     <row r="132">
-      <c r="J132" s="10"/>
+      <c r="J132" s="11"/>
     </row>
     <row r="133">
-      <c r="J133" s="10"/>
+      <c r="J133" s="11"/>
     </row>
     <row r="134">
-      <c r="J134" s="10"/>
+      <c r="J134" s="11"/>
     </row>
     <row r="135">
-      <c r="J135" s="10"/>
+      <c r="J135" s="11"/>
     </row>
     <row r="136">
-      <c r="J136" s="10"/>
+      <c r="J136" s="11"/>
     </row>
     <row r="137">
-      <c r="J137" s="10"/>
+      <c r="J137" s="11"/>
     </row>
     <row r="138">
-      <c r="J138" s="10"/>
+      <c r="J138" s="11"/>
     </row>
     <row r="139">
-      <c r="J139" s="10"/>
+      <c r="J139" s="11"/>
     </row>
     <row r="140">
-      <c r="J140" s="10"/>
+      <c r="J140" s="11"/>
     </row>
     <row r="141">
-      <c r="J141" s="10"/>
+      <c r="J141" s="11"/>
     </row>
     <row r="142">
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="J142" s="10"/>
+      <c r="D142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="J142" s="11"/>
     </row>
     <row r="143">
-      <c r="E143" s="11"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
-      <c r="J143" s="10"/>
+      <c r="D143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="J143" s="11"/>
     </row>
     <row r="144">
-      <c r="E144" s="11"/>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
-      <c r="J144" s="10"/>
+      <c r="D144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="J144" s="11"/>
     </row>
     <row r="145">
-      <c r="J145" s="10"/>
+      <c r="J145" s="11"/>
     </row>
     <row r="146">
-      <c r="J146" s="10"/>
+      <c r="J146" s="11"/>
     </row>
     <row r="147">
-      <c r="J147" s="10"/>
+      <c r="J147" s="11"/>
     </row>
     <row r="148">
-      <c r="J148" s="10"/>
+      <c r="J148" s="11"/>
     </row>
     <row r="149">
-      <c r="J149" s="10"/>
+      <c r="J149" s="11"/>
     </row>
     <row r="150">
-      <c r="J150" s="10"/>
+      <c r="J150" s="11"/>
     </row>
     <row r="151">
-      <c r="J151" s="10"/>
+      <c r="J151" s="11"/>
     </row>
     <row r="152">
-      <c r="J152" s="10"/>
+      <c r="J152" s="11"/>
     </row>
     <row r="153">
-      <c r="J153" s="10"/>
+      <c r="J153" s="11"/>
     </row>
     <row r="154">
-      <c r="J154" s="10"/>
+      <c r="J154" s="11"/>
     </row>
     <row r="155">
-      <c r="J155" s="10"/>
+      <c r="J155" s="11"/>
     </row>
     <row r="156">
-      <c r="J156" s="10"/>
+      <c r="J156" s="11"/>
     </row>
     <row r="157">
-      <c r="J157" s="10"/>
+      <c r="J157" s="11"/>
     </row>
     <row r="158">
-      <c r="J158" s="10"/>
+      <c r="J158" s="11"/>
     </row>
     <row r="159">
-      <c r="J159" s="10"/>
+      <c r="J159" s="11"/>
     </row>
     <row r="160">
-      <c r="J160" s="10"/>
+      <c r="J160" s="11"/>
     </row>
     <row r="161">
-      <c r="J161" s="10"/>
+      <c r="J161" s="11"/>
     </row>
     <row r="162">
-      <c r="J162" s="10"/>
+      <c r="J162" s="11"/>
     </row>
     <row r="163">
-      <c r="J163" s="10"/>
+      <c r="J163" s="11"/>
     </row>
     <row r="164">
-      <c r="J164" s="10"/>
+      <c r="J164" s="11"/>
     </row>
     <row r="165">
-      <c r="J165" s="10"/>
+      <c r="J165" s="11"/>
     </row>
     <row r="166">
-      <c r="J166" s="10"/>
+      <c r="J166" s="11"/>
     </row>
     <row r="167">
-      <c r="J167" s="10"/>
+      <c r="J167" s="11"/>
     </row>
     <row r="168">
-      <c r="J168" s="10"/>
+      <c r="J168" s="11"/>
     </row>
     <row r="169">
-      <c r="J169" s="10"/>
+      <c r="J169" s="11"/>
     </row>
     <row r="170">
-      <c r="J170" s="10"/>
+      <c r="J170" s="11"/>
     </row>
     <row r="171">
-      <c r="J171" s="10"/>
+      <c r="J171" s="11"/>
     </row>
     <row r="172">
-      <c r="J172" s="10"/>
+      <c r="J172" s="11"/>
     </row>
     <row r="173">
-      <c r="J173" s="10"/>
+      <c r="J173" s="11"/>
     </row>
     <row r="174">
-      <c r="J174" s="10"/>
+      <c r="J174" s="11"/>
     </row>
     <row r="175">
-      <c r="J175" s="10"/>
+      <c r="J175" s="11"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="N2"/>
+    <hyperlink r:id="rId2" ref="R2"/>
+    <hyperlink r:id="rId3" ref="O3"/>
+    <hyperlink r:id="rId4" ref="R3"/>
+    <hyperlink r:id="rId5" ref="O4"/>
+    <hyperlink r:id="rId6" ref="O5"/>
+    <hyperlink r:id="rId7" ref="R5"/>
+    <hyperlink r:id="rId8" ref="N6"/>
+    <hyperlink r:id="rId9" ref="R6"/>
+    <hyperlink r:id="rId10" ref="O7"/>
+    <hyperlink r:id="rId11" ref="R7"/>
+    <hyperlink r:id="rId12" ref="Q8"/>
+    <hyperlink r:id="rId13" ref="R8"/>
+    <hyperlink r:id="rId14" ref="O9"/>
+    <hyperlink r:id="rId15" ref="R9"/>
+    <hyperlink r:id="rId16" ref="Q10"/>
+    <hyperlink r:id="rId17" ref="R10"/>
+    <hyperlink r:id="rId18" ref="N11"/>
+    <hyperlink r:id="rId19" ref="R11"/>
+    <hyperlink r:id="rId20" ref="Q12"/>
+    <hyperlink r:id="rId21" ref="R12"/>
+    <hyperlink r:id="rId22" ref="O13"/>
+    <hyperlink r:id="rId23" ref="R13"/>
+    <hyperlink r:id="rId24" ref="Q14"/>
+    <hyperlink r:id="rId25" ref="R14"/>
+    <hyperlink r:id="rId26" ref="O15"/>
+    <hyperlink r:id="rId27" ref="R15"/>
+    <hyperlink r:id="rId28" ref="M16"/>
+    <hyperlink r:id="rId29" ref="M17"/>
+  </hyperlinks>
+  <drawing r:id="rId30"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="91">
   <si>
     <t>Template Id</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Button Type</t>
   </si>
   <si>
-    <t>Button Text</t>
+    <t>Button1</t>
   </si>
   <si>
     <t>Language</t>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Sample for dynamic URl</t>
+  </si>
+  <si>
+    <t>Button2</t>
+  </si>
+  <si>
+    <t>Button3</t>
   </si>
   <si>
     <t>broadcast_v2</t>
@@ -148,7 +154,13 @@
     <t>Quick Reply</t>
   </si>
   <si>
-    <t>Great, Okay, Bad(3 diff buttons)</t>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>Bad</t>
   </si>
   <si>
     <t>cod_c</t>
@@ -428,8 +440,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="36.86"/>
-    <col customWidth="1" min="3" max="3" width="20.57"/>
-    <col customWidth="1" min="4" max="4" width="65.0"/>
+    <col customWidth="1" min="3" max="3" width="35.0"/>
+    <col customWidth="1" min="4" max="4" width="84.14"/>
     <col customWidth="1" min="5" max="5" width="20.57"/>
     <col customWidth="1" min="6" max="6" width="26.71"/>
     <col customWidth="1" min="7" max="7" width="23.14"/>
@@ -495,55 +507,61 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" ht="79.5" customHeight="1">
       <c r="A2" s="2">
         <v>6088599.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2" s="3">
         <v>44358.0</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
@@ -563,51 +581,51 @@
         <v>6088595.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="3">
         <v>44358.0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -627,52 +645,56 @@
         <v>6088592.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" s="3">
         <v>44358.0</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="S4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
@@ -689,51 +711,51 @@
         <v>6088591.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J5" s="3">
         <v>44358.0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
@@ -753,49 +775,49 @@
         <v>6088590.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J6" s="3">
         <v>44358.0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
@@ -815,51 +837,51 @@
         <v>6088586.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J7" s="3">
         <v>44358.0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -879,55 +901,55 @@
         <v>6088584.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J8" s="3">
         <v>44358.0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
@@ -947,51 +969,51 @@
         <v>6088581.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J9" s="3">
         <v>44358.0</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
@@ -1011,55 +1033,55 @@
         <v>6088580.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J10" s="3">
         <v>44358.0</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
@@ -1079,49 +1101,49 @@
         <v>23414.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J11" s="3">
         <v>44358.0</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
@@ -1141,55 +1163,55 @@
         <v>23413.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J12" s="3">
         <v>44358.0</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="Q12" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
@@ -1209,51 +1231,51 @@
         <v>23412.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J13" s="3">
         <v>44358.0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
@@ -1273,55 +1295,55 @@
         <v>23411.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J14" s="3">
         <v>44358.0</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="Q14" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
@@ -1341,51 +1363,51 @@
         <v>23410.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J15" s="3">
         <v>44358.0</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
@@ -1405,40 +1427,40 @@
         <v>6089010.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J16" s="9">
         <v>44361.0</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1463,40 +1485,40 @@
         <v>23652.0</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J17" s="9">
         <v>44361.0</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanul/Desktop/Bitspeed/gupshupTemplateApprover-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bitespeed\gupshupTemplateApprover-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61726E0-F6C6-2E40-B626-FA3A0337840D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE39F7E0-1B39-4A3E-9B41-5B8256961FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6BD179F8-8D85-9F46-9907-3BA9FA31B970}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15375" xr2:uid="{6BD179F8-8D85-9F46-9907-3BA9FA31B970}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -276,12 +267,6 @@
     <t>broadcast with image with quick reply</t>
   </si>
   <si>
-    <t>Tweet! Tweet! {{1}}, 
-We have an update for you. - {{2}}
-Chat with customer support at {{3}} (Click on CONTINUE button below 👇 to see customer support link).
-To unsubscribe from messages, please type STOP.</t>
-  </si>
-  <si>
     <t>Tweet! Tweet! {{1}}, Thanks!
 Your order is being prepared, we will let you know once it's ready. You can view the status of your order by clicking on the link below 👇
 Need to chat with us? Click here: {{4}}
@@ -368,6 +353,12 @@
     <t>Tweet! Tweet! {{1}}, 
 We have an update. Please click on yes below if you'd like us to share it with you.
 Chat with customer support at {{2}} (Click on CONTINUE button below 👇 to see customer support link).
+To unsubscribe from messages, please type STOP.</t>
+  </si>
+  <si>
+    <t>Tweet! Tweet! {{1}},
+We have an update for you. - {{2}}
+Chat with customer support at {{3}} (Click on CONTINUE button below 👇 to see customer support link).
 To unsubscribe from messages, please type STOP.</t>
   </si>
 </sst>
@@ -766,14 +757,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="34.1640625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="34.125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>6088599</v>
       </c>
@@ -846,7 +837,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -887,7 +878,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>6088595</v>
       </c>
@@ -898,7 +889,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>34</v>
@@ -941,7 +932,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>6088592</v>
       </c>
@@ -952,7 +943,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -997,7 +988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>6088591</v>
       </c>
@@ -1008,7 +999,7 @@
         <v>45</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>34</v>
@@ -1051,7 +1042,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>6088590</v>
       </c>
@@ -1062,7 +1053,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
@@ -1103,7 +1094,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6088586</v>
       </c>
@@ -1114,7 +1105,7 @@
         <v>51</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -1157,7 +1148,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6088584</v>
       </c>
@@ -1168,7 +1159,7 @@
         <v>54</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -1215,7 +1206,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6088581</v>
       </c>
@@ -1226,7 +1217,7 @@
         <v>58</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
@@ -1269,7 +1260,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6088580</v>
       </c>
@@ -1280,7 +1271,7 @@
         <v>60</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -1327,7 +1318,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>23414</v>
       </c>
@@ -1338,7 +1329,7 @@
         <v>63</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
@@ -1379,7 +1370,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>23413</v>
       </c>
@@ -1390,7 +1381,7 @@
         <v>67</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
@@ -1437,7 +1428,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>23412</v>
       </c>
@@ -1448,7 +1439,7 @@
         <v>69</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -1491,7 +1482,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>23411</v>
       </c>
@@ -1502,7 +1493,7 @@
         <v>71</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -1549,7 +1540,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>23410</v>
       </c>
@@ -1560,7 +1551,7 @@
         <v>74</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
@@ -1603,7 +1594,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>6089010</v>
       </c>
@@ -1614,7 +1605,7 @@
         <v>76</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -1651,7 +1642,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>23652</v>
       </c>
@@ -1662,7 +1653,7 @@
         <v>79</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
@@ -1699,7 +1690,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{2E26A896-1E52-7B46-95E1-727B72AF1E9E}"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bitespeed\gupshupTemplateApprover-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanul/Desktop/Bitspeed/gupshupTemplateApprover-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE39F7E0-1B39-4A3E-9B41-5B8256961FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4603E9D-4D64-044F-B06C-C53DCB143F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15375" xr2:uid="{6BD179F8-8D85-9F46-9907-3BA9FA31B970}"/>
+    <workbookView xWindow="0" yWindow="1600" windowWidth="28800" windowHeight="15380" xr2:uid="{6BD179F8-8D85-9F46-9907-3BA9FA31B970}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>Button3</t>
   </si>
   <si>
-    <t>broadcast_v2</t>
-  </si>
-  <si>
     <t>broadcast without image with call action</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>https://bspd.me/track</t>
   </si>
   <si>
-    <t>order_r2</t>
-  </si>
-  <si>
     <t>order receipt</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>Azani</t>
   </si>
   <si>
-    <t>reordering_c</t>
-  </si>
-  <si>
     <t>reordering campaign</t>
   </si>
   <si>
@@ -159,36 +150,24 @@
     <t>Bad</t>
   </si>
   <si>
-    <t>cod_c</t>
-  </si>
-  <si>
     <t>cod confirmation</t>
   </si>
   <si>
     <t>Confirm Order</t>
   </si>
   <si>
-    <t>shipping_n</t>
-  </si>
-  <si>
     <t>shipping</t>
   </si>
   <si>
     <t>Track Order Status</t>
   </si>
   <si>
-    <t>browse_nd</t>
-  </si>
-  <si>
     <t>browse without image without discount</t>
   </si>
   <si>
     <t>Complete Payment</t>
   </si>
   <si>
-    <t>browse_d</t>
-  </si>
-  <si>
     <t>browse without image with discount</t>
   </si>
   <si>
@@ -198,24 +177,15 @@
     <t>code</t>
   </si>
   <si>
-    <t>abandon_nd</t>
-  </si>
-  <si>
     <t>abandon without image without discount</t>
   </si>
   <si>
-    <t>abandon_d</t>
-  </si>
-  <si>
     <t>abandon without image with discount</t>
   </si>
   <si>
     <t>5% off</t>
   </si>
   <si>
-    <t>broadcast_v2_img</t>
-  </si>
-  <si>
     <t>broadcast with image with call action</t>
   </si>
   <si>
@@ -225,43 +195,25 @@
     <t>INELIGIBLE</t>
   </si>
   <si>
-    <t>browse_img_d</t>
-  </si>
-  <si>
     <t>browse with image with discount</t>
   </si>
   <si>
-    <t>browse_img_nd</t>
-  </si>
-  <si>
     <t>browse with image wihtout discount</t>
   </si>
   <si>
-    <t>abandon_image_d</t>
-  </si>
-  <si>
     <t>adandon with image with discount</t>
   </si>
   <si>
     <t xml:space="preserve">code </t>
   </si>
   <si>
-    <t>abandon_img_nd</t>
-  </si>
-  <si>
     <t>abandon with image without discount</t>
   </si>
   <si>
-    <t>broadcast_v1</t>
-  </si>
-  <si>
     <t>broadcast without image with quick reply</t>
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>broadcast_img_v1</t>
   </si>
   <si>
     <t>broadcast with image with quick reply</t>
@@ -360,6 +312,54 @@
 We have an update for you. - {{2}}
 Chat with customer support at {{3}} (Click on CONTINUE button below 👇 to see customer support link).
 To unsubscribe from messages, please type STOP.</t>
+  </si>
+  <si>
+    <t>abandon_d_1</t>
+  </si>
+  <si>
+    <t>broadcast_v2_1</t>
+  </si>
+  <si>
+    <t>order_r2_1</t>
+  </si>
+  <si>
+    <t>reordering_c_1</t>
+  </si>
+  <si>
+    <t>cod_c_1</t>
+  </si>
+  <si>
+    <t>shipping_n_1</t>
+  </si>
+  <si>
+    <t>browse_nd_1</t>
+  </si>
+  <si>
+    <t>browse_d_1</t>
+  </si>
+  <si>
+    <t>abandon_nd_1</t>
+  </si>
+  <si>
+    <t>broadcast_v2_img_1</t>
+  </si>
+  <si>
+    <t>browse_img_d_1</t>
+  </si>
+  <si>
+    <t>browse_img_nd_1</t>
+  </si>
+  <si>
+    <t>abandon_image_d_1</t>
+  </si>
+  <si>
+    <t>abandon_img_nd_1</t>
+  </si>
+  <si>
+    <t>broadcast_v1_1</t>
+  </si>
+  <si>
+    <t>broadcast_img_v1_1</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -395,6 +395,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -419,10 +427,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -437,8 +446,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -754,17 +765,17 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="34.1640625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,813 +837,813 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>6088599</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J2" s="3">
         <v>44358</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="4" t="s">
-        <v>31</v>
+      <c r="R2" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>6088595</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J3" s="3">
         <v>44358</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>6088592</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J4" s="3">
         <v>44358</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="4"/>
       <c r="S4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>6088591</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J5" s="3">
         <v>44358</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>6088590</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J6" s="3">
         <v>44358</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="M6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6088586</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J7" s="3">
         <v>44358</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6088584</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J8" s="3">
         <v>44358</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="M8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6088581</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J9" s="3">
         <v>44358</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="M9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6088580</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J10" s="3">
         <v>44358</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="M10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>23414</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J11" s="3">
         <v>44358</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>23413</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J12" s="3">
         <v>44358</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>23412</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J13" s="3">
         <v>44358</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>23411</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J14" s="3">
         <v>44358</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>23410</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J15" s="3">
         <v>44358</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>6089010</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J16" s="6">
         <v>44361</v>
       </c>
       <c r="K16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="M16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1642,45 +1653,45 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>23652</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J17" s="6">
         <v>44361</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1690,7 +1701,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{2E26A896-1E52-7B46-95E1-727B72AF1E9E}"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanul/Desktop/Bitspeed/gupshupTemplateApprover-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bitespeed\gupshupTemplateApprover-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4603E9D-4D64-044F-B06C-C53DCB143F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76140C06-0189-4116-A06C-1F170D1BD42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1600" windowWidth="28800" windowHeight="15380" xr2:uid="{6BD179F8-8D85-9F46-9907-3BA9FA31B970}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="28800" windowHeight="15375" xr2:uid="{6BD179F8-8D85-9F46-9907-3BA9FA31B970}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="100">
   <si>
     <t>Template Id</t>
   </si>
@@ -360,6 +360,24 @@
   </si>
   <si>
     <t>broadcast_img_v1_1</t>
+  </si>
+  <si>
+    <t>dutch (nl)</t>
+  </si>
+  <si>
+    <t>spanish (es)</t>
+  </si>
+  <si>
+    <t>portugese (en)</t>
+  </si>
+  <si>
+    <t>hebrew (en)</t>
+  </si>
+  <si>
+    <t>ItAlian (en)</t>
+  </si>
+  <si>
+    <t>portuguese (de)</t>
   </si>
 </sst>
 </file>
@@ -764,18 +782,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF688D4F-FDA8-1543-BDDE-83C49EBB4627}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="34.1640625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="34.125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,7 +855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>6088599</v>
       </c>
@@ -860,7 +878,7 @@
         <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>25</v>
@@ -889,7 +907,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>6088595</v>
       </c>
@@ -912,7 +930,7 @@
         <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>25</v>
@@ -943,7 +961,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>6088592</v>
       </c>
@@ -966,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>25</v>
@@ -999,7 +1017,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>6088591</v>
       </c>
@@ -1022,7 +1040,7 @@
         <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>25</v>
@@ -1053,7 +1071,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>6088590</v>
       </c>
@@ -1076,7 +1094,7 @@
         <v>44</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>25</v>
@@ -1105,7 +1123,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6088586</v>
       </c>
@@ -1128,7 +1146,7 @@
         <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>25</v>
@@ -1159,7 +1177,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6088584</v>
       </c>
@@ -1217,7 +1235,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6088581</v>
       </c>
@@ -1271,7 +1289,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6088580</v>
       </c>
@@ -1329,7 +1347,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>23414</v>
       </c>
@@ -1381,7 +1399,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>23413</v>
       </c>
@@ -1439,7 +1457,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>23412</v>
       </c>
@@ -1493,7 +1511,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>23411</v>
       </c>
@@ -1551,7 +1569,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>23410</v>
       </c>
@@ -1605,7 +1623,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>6089010</v>
       </c>
@@ -1653,7 +1671,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>23652</v>
       </c>
@@ -1701,7 +1719,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" ht="79" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:20" ht="78.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1" xr:uid="{2E26A896-1E52-7B46-95E1-727B72AF1E9E}"/>
